--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhenr\Lambton_Python_Proj\AML_Python_Programming\Final_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d00cd00f2cb6b89/Lambton_College/AML_1204_Phyton_Programming/Final term project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C065DEF2-886B-463B-BBF3-95288C5C6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{C065DEF2-886B-463B-BBF3-95288C5C6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5836F3D0-F12D-4B30-9A94-3836A980D53F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,53 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>Procreación</t>
-  </si>
-  <si>
-    <t>De donde vienen los niños?</t>
-  </si>
-  <si>
-    <t>De la cigueña
-Dice la leyenda que una cigueña trae los niños desde París
-Aunque eso es solo una leyenda</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Naturaleza</t>
-  </si>
-  <si>
-    <t>Atmosfera</t>
-  </si>
-  <si>
-    <t>porque el cielo es azul?</t>
-  </si>
-  <si>
-    <t>Por la difusión de la luz en las particulas de hidrogeno en la atmosfera.
-Esto dispersa la luz roja dejando solo el color azul que vemos</t>
-  </si>
-  <si>
-    <t>Vegetación</t>
-  </si>
-  <si>
-    <t>porque las plantas son verdes?</t>
-  </si>
-  <si>
-    <t>Por la clorofila
-Que es la encargada de llevar los nutrientes por toda la planta</t>
-  </si>
-  <si>
-    <t>Todos tenemos nombre?</t>
-  </si>
-  <si>
-    <t>Debería asumirse que sí, pero quien sabe?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -96,18 +50,136 @@
   </si>
   <si>
     <t>Row</t>
+  </si>
+  <si>
+    <t>Hygiene Practices</t>
+  </si>
+  <si>
+    <t>How to clean and disinfect surfaces?</t>
+  </si>
+  <si>
+    <t>Cleaning with a household cleaner that contains soap or detergent reduces the amount of germs on surfaces and decreases risk of infection from surfaces. In most situations, cleaning alone removes most virus particles on surfaces.</t>
+  </si>
+  <si>
+    <t>Home cleaning</t>
+  </si>
+  <si>
+    <t>Personal hygiene</t>
+  </si>
+  <si>
+    <t>Regularly and thoroughly clean your hands with an alcohol-based hand rub or wash them with soap and water. This eliminates germs including viruses that may be on your hands.</t>
+  </si>
+  <si>
+    <t>What personal hygiene practices should I follow?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Can masks prevent the transmission of COVID?</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>COVID</t>
+  </si>
+  <si>
+    <t>Masks</t>
+  </si>
+  <si>
+    <t>Make wearing a mask a normal part of being around other people. The appropriate use, storage and cleaning or disposal are essential to make masks as effective as possible.</t>
+  </si>
+  <si>
+    <t>Social Distancing</t>
+  </si>
+  <si>
+    <t>Coronavirus disease (COVID-19) is an infectious disease caused by a newly discovered coronavirus. Most people infected with the COVID-19 virus will experience mild to moderate respiratory illness and recover without requiring special treatment.  Older people, and those with underlying medical problems like cardiovascular disease, diabetes, chronic respiratory disease, and cancer are more likely to develop serious illness.</t>
+  </si>
+  <si>
+    <t>What is corona virus?</t>
+  </si>
+  <si>
+    <t>Are COVID vaccines safe?</t>
+  </si>
+  <si>
+    <t>Vaccines have been found to be safe and effective in people with various underlying medical conditions that are associated with increased risk of severe disease. These include high blood pressure; diabetes; asthma; pulmonary, liver or kidney disease; and chronic infections that are stable and controlled.</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>How to mantain a healthy lifestyle?</t>
+  </si>
+  <si>
+    <t>1. Eat a healthy diet.
+2. Consume less salt and sugar.
+3. Reduce intake of harmful fats.
+4. Avoid harmful use of alcohol.
+5. Don't smoke.
+6. Be active.</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Nutrition is a critical part of health and development. Better nutrition is related to improved infant, child and maternal health, stronger immune systems, safer pregnancy and childbirth, lower risk of non-communicable diseases (such as diabetes and cardiovascular disease), and longevity.</t>
+  </si>
+  <si>
+    <t>Why is nutrition important?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breastfeeding is one of the most effective ways to ensure child health and survival. Breastmilk is the ideal food for infants. It is safe, clean and contains antibodies which help protect against many common childhood illnesses. Breastmilk provides all the energy and nutrients that the infant needs for the first months of life, and it continues to provide up to half or more of a child’s nutritional needs during the second half of the first year, and up to one third during the second year of life. </t>
+  </si>
+  <si>
+    <t>Breastfeeding</t>
+  </si>
+  <si>
+    <t>Why is Breastfeeding Important for babies?</t>
+  </si>
+  <si>
+    <t>Tell me an interesting fact about food</t>
+  </si>
+  <si>
+    <t>Hawaiian pizza didn't come from Hawaii. It was invented in Canada.</t>
+  </si>
+  <si>
+    <r>
+      <t>What Is Social </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>distancing?</t>
+    </r>
+  </si>
+  <si>
+    <t>Maintain at least a 1-meter distance between yourself and others to reduce your risk of infection when they cough, sneeze or speak. Maintain an even greater distance between yourself and others when indoors.The further away, the better.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,6 +202,17 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,39 +282,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -513,165 +618,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="60">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IF(LEN(G2)&gt;IF(I2="SI",64,128),"La pregunta está muy larga, no debe exceder 128 caracteres, pero si desea que aparezca en el menu no debe superar los 64 caracteres","OK")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75">
-      <c r="A3" s="7">
+    <row r="3" spans="1:10" ht="60">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J11" si="0">IF(LEN(G3)&gt;IF(I3="SI",64,128),"La pregunta está muy larga, no debe exceder 128 caracteres, pero si desea que aparezca en el menu no debe superar los 64 caracteres","OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J5" si="0">IF(LEN(G3)&gt;IF(I3="SI",64,128),"La pregunta está muy larga, no debe exceder 128 caracteres, pero si desea que aparezca en el menu no debe superar los 64 caracteres","OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>3</v>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="7">
+    <row r="5" spans="1:10" ht="75">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
+    <row r="6" spans="1:10" ht="120">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="135">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>